--- a/src/main/resources/download/exportCompositeCard.xlsx
+++ b/src/main/resources/download/exportCompositeCard.xlsx
@@ -14,51 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>MAT_ID</t>
-  </si>
-  <si>
-    <t>TEMPERATURE</t>
-  </si>
-  <si>
-    <t>THICKNESS</t>
-  </si>
-  <si>
-    <t>RHO</t>
-  </si>
-  <si>
-    <t>AIRCRAFT</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>NU12</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>G1Z</t>
-  </si>
-  <si>
-    <t>G2Z</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>REMARK</t>
-  </si>
-  <si>
-    <t>ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>名称Name</t>
+  </si>
+  <si>
+    <t>材料卡编号ID</t>
+  </si>
+  <si>
+    <t>温度T（实数）C</t>
+  </si>
+  <si>
+    <t>厚度t</t>
+  </si>
+  <si>
+    <t>弹性模量E1</t>
+  </si>
+  <si>
+    <t>弹性模量E2</t>
+  </si>
+  <si>
+    <t>泊松比NU12</t>
+  </si>
+  <si>
+    <t>剪切模量G12</t>
+  </si>
+  <si>
+    <t>剪切模量G1Z</t>
+  </si>
+  <si>
+    <t>剪切模量G2Z</t>
+  </si>
+  <si>
+    <t>密度RHO</t>
+  </si>
+  <si>
+    <t>热膨胀系数A</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>适用机型</t>
   </si>
 </sst>
 </file>
@@ -66,12 +63,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -79,15 +76,86 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,28 +170,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,43 +184,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -182,30 +192,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -214,16 +200,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,19 +247,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,25 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,7 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,55 +391,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,19 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,37 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,26 +441,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,21 +467,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,6 +500,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -529,156 +523,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -998,59 +1011,59 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/download/exportCompositeCard.xlsx
+++ b/src/main/resources/download/exportCompositeCard.xlsx
@@ -22,7 +22,7 @@
     <t>材料卡编号ID</t>
   </si>
   <si>
-    <t>温度T（实数）C</t>
+    <t>温度T</t>
   </si>
   <si>
     <t>厚度t</t>
@@ -63,8 +63,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -87,67 +87,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,24 +117,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,6 +131,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -192,6 +192,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -200,39 +207,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,187 +247,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +438,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,6 +461,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,50 +524,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -541,148 +541,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
